--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59df2590da432cb1/Documents/UiPath/LatStateMesin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935B72DB-B9A0-44CB-B683-20D765FD9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{935B72DB-B9A0-44CB-B683-20D765FD9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D53528-BE1D-47BF-8C92-A2125F2DF4C2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C194A0E-06DB-412E-91AA-5B3C92430A68}"/>
+    <workbookView xWindow="3220" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{9C194A0E-06DB-412E-91AA-5B3C92430A68}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Config</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>AC RPA-PROA</t>
+  </si>
+  <si>
+    <t>3O</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,8 +456,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>30</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
